--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D485D-19F0-4A46-8510-928D93F6DB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD5E8BB-9428-47E8-A2FA-F2987CE2DFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="600" windowWidth="16860" windowHeight="9585" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="180" windowWidth="15375" windowHeight="10470" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.24399999999999999</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.2044384667115E-2</c:v>
+                  <c:v>9.2804303967720242E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.24399999999999999</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>8.2044384667115E-2</v>
+        <v>9.2804303967720242E-2</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -24355,7 +24355,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年06月26日 現在</v>
+        <v>2021年07月17日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L69" sqref="L69:L152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -49044,18 +49044,20 @@
         <f>'LESSONS (Java)'!J67</f>
         <v>作成課題 ⭐ トランプ当てゲーム</v>
       </c>
-      <c r="K64" s="51"/>
+      <c r="K64" s="51">
+        <v>44389</v>
+      </c>
       <c r="L64" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K67,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M64" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N64" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N64" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
@@ -49094,18 +49096,20 @@
         <f>'LESSONS (Java)'!J68</f>
         <v>リファクタリングとは</v>
       </c>
-      <c r="K65" s="51"/>
+      <c r="K65" s="51">
+        <v>44381</v>
+      </c>
       <c r="L65" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K68,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M65" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N65" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N65" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
@@ -49144,18 +49148,20 @@
         <f>'LESSONS (Java)'!J69</f>
         <v>IDE でメソッド定義元へジャンプ</v>
       </c>
-      <c r="K66" s="51"/>
+      <c r="K66" s="51">
+        <v>44381</v>
+      </c>
       <c r="L66" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K69,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M66" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N66" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N66" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
@@ -49194,18 +49200,20 @@
         <f>'LESSONS (Java)'!J70</f>
         <v>IDE でメソッド参照先へジャンプ</v>
       </c>
-      <c r="K67" s="51"/>
+      <c r="K67" s="51">
+        <v>44381</v>
+      </c>
       <c r="L67" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K70,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M67" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N67" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N67" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
@@ -49244,18 +49252,20 @@
         <f>'LESSONS (Java)'!J71</f>
         <v>IDE の一括置換機能</v>
       </c>
-      <c r="K68" s="51"/>
+      <c r="K68" s="51">
+        <v>44381</v>
+      </c>
       <c r="L68" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K71,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M68" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N68" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N68" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
@@ -53476,7 +53486,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53485,7 +53495,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.24399999999999999</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -57944,12 +57954,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58137,15 +58144,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58169,10 +58180,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD5E8BB-9428-47E8-A2FA-F2987CE2DFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A04DA2-2F91-47D3-9CDB-9A33F849B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3270" yWindow="180" windowWidth="15375" windowHeight="10470" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.29199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.2804303967720242E-2</c:v>
+                  <c:v>9.8184263618022863E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.27600000000000002</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>9.2804303967720242E-2</v>
+        <v>9.8184263618022863E-2</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -24355,7 +24355,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年07月17日 現在</v>
+        <v>2021年07月18日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="L69" sqref="L69:L152"/>
+      <selection pane="bottomRight" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -49354,18 +49354,20 @@
         <f>'LESSONS (Java)'!J73</f>
         <v>悪い習慣 😈 名前にないことをやる</v>
       </c>
-      <c r="K70" s="51"/>
+      <c r="K70" s="51">
+        <v>44394</v>
+      </c>
       <c r="L70" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K73,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M70" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N70" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N70" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
@@ -49404,18 +49406,20 @@
         <f>'LESSONS (Java)'!J74</f>
         <v>悪い習慣 😈 見ればわかることをコメントに書く</v>
       </c>
-      <c r="K71" s="51"/>
+      <c r="K71" s="51">
+        <v>44394</v>
+      </c>
       <c r="L71" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K74,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M71" s="30" t="str">
         <f t="shared" ref="M71:M134" si="2">IF(K71&lt;&gt;"","●","")</f>
-        <v/>
-      </c>
-      <c r="N71" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N71" s="31">
         <f t="shared" ref="N71:N134" si="3">IF(M71="●",L71,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
@@ -49504,18 +49508,20 @@
         <f>'LESSONS (Java)'!J76</f>
         <v>悪い習慣 😈 嘘のコメントを書く</v>
       </c>
-      <c r="K73" s="51"/>
+      <c r="K73" s="51">
+        <v>44394</v>
+      </c>
       <c r="L73" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K76,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M73" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N73" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N73" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
@@ -49554,18 +49560,20 @@
         <f>'LESSONS (Java)'!J77</f>
         <v>悪い習慣 😈 クラス名が動詞</v>
       </c>
-      <c r="K74" s="51"/>
+      <c r="K74" s="51">
+        <v>44394</v>
+      </c>
       <c r="L74" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K77,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M74" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N74" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N74" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
@@ -53486,7 +53494,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53495,7 +53503,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.27600000000000002</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -57954,9 +57962,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58144,19 +58155,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58180,9 +58187,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A04DA2-2F91-47D3-9CDB-9A33F849B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668EA51B-6524-47B9-87CD-E82F1998D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="180" windowWidth="15375" windowHeight="10470" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="480" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.39800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.8184263618022863E-2</c:v>
+                  <c:v>0.13382649630127774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>73</v>
+        <v>99.5</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.29199999999999998</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>73</v>
+        <v>99.5</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>9.8184263618022863E-2</v>
+        <v>0.13382649630127774</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -24355,7 +24355,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年07月18日 現在</v>
+        <v>2021年09月06日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K77" sqref="K77"/>
+      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -49304,18 +49304,20 @@
         <f>'LESSONS (Java)'!J72</f>
         <v>作成課題 ⭐ じゃんけんゲーム</v>
       </c>
-      <c r="K69" s="51"/>
+      <c r="K69" s="51">
+        <v>44414</v>
+      </c>
       <c r="L69" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K72,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M69" s="30" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N69" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N69" s="31">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
@@ -49458,18 +49460,20 @@
         <f>'LESSONS (Java)'!J75</f>
         <v>作成課題 ⭐ ブラックジャック</v>
       </c>
-      <c r="K72" s="51"/>
+      <c r="K72" s="51">
+        <v>44431</v>
+      </c>
       <c r="L72" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K75,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>6</v>
       </c>
       <c r="M72" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N72" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N72" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
@@ -49662,18 +49666,20 @@
         <f>'LESSONS (Java)'!J79</f>
         <v>説明用変数</v>
       </c>
-      <c r="K76" s="51"/>
+      <c r="K76" s="51">
+        <v>44408</v>
+      </c>
       <c r="L76" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K79,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M76" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N76" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N76" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
@@ -49712,18 +49718,20 @@
         <f>'LESSONS (Java)'!J80</f>
         <v>マジックナンバーを使わない</v>
       </c>
-      <c r="K77" s="51"/>
+      <c r="K77" s="51">
+        <v>44408</v>
+      </c>
       <c r="L77" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K80,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M77" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N77" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N77" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
@@ -49812,18 +49820,20 @@
         <f>'LESSONS (Java)'!J82</f>
         <v>ネストを深くしない</v>
       </c>
-      <c r="K79" s="51"/>
+      <c r="K79" s="51">
+        <v>44414</v>
+      </c>
       <c r="L79" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K82,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M79" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N79" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N79" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
@@ -49862,18 +49872,20 @@
         <f>'LESSONS (Java)'!J83</f>
         <v>その else 文は必要ですか</v>
       </c>
-      <c r="K80" s="51"/>
+      <c r="K80" s="51">
+        <v>44414</v>
+      </c>
       <c r="L80" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K83,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M80" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N80" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N80" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
@@ -49912,18 +49924,20 @@
         <f>'LESSONS (Java)'!J84</f>
         <v>同一性と同値性</v>
       </c>
-      <c r="K81" s="51"/>
+      <c r="K81" s="51">
+        <v>44414</v>
+      </c>
       <c r="L81" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K84,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M81" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N81" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N81" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
@@ -49962,18 +49976,20 @@
         <f>'LESSONS (Java)'!J85</f>
         <v>まとまった処理はメソッドに切り出す</v>
       </c>
-      <c r="K82" s="51"/>
+      <c r="K82" s="51">
+        <v>44414</v>
+      </c>
       <c r="L82" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K85,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M82" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N82" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N82" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
@@ -50062,18 +50078,20 @@
         <f>'LESSONS (Java)'!J87</f>
         <v>1つのメソッドには1つの役割を</v>
       </c>
-      <c r="K84" s="51"/>
+      <c r="K84" s="51">
+        <v>44420</v>
+      </c>
       <c r="L84" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K87,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M84" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N84" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N84" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
@@ -50112,18 +50130,20 @@
         <f>'LESSONS (Java)'!J88</f>
         <v>実態に則したメソッド名を付ける</v>
       </c>
-      <c r="K85" s="51"/>
+      <c r="K85" s="51">
+        <v>44423</v>
+      </c>
       <c r="L85" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K88,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M85" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N85" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N85" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
@@ -50212,18 +50232,20 @@
         <f>'LESSONS (Java)'!J90</f>
         <v>メソッド呼び出しでストーリーを作る</v>
       </c>
-      <c r="K87" s="51"/>
+      <c r="K87" s="51">
+        <v>44430</v>
+      </c>
       <c r="L87" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K90,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M87" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N87" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N87" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.4">
@@ -50262,18 +50284,20 @@
         <f>'LESSONS (Java)'!J91</f>
         <v>if 文や while 文の条件式をメソッドにする</v>
       </c>
-      <c r="K88" s="51"/>
+      <c r="K88" s="51">
+        <v>44430</v>
+      </c>
       <c r="L88" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K91,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M88" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N88" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N88" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.4">
@@ -50312,18 +50336,20 @@
         <f>'LESSONS (Java)'!J92</f>
         <v>ガード節・早期リターンを利用する</v>
       </c>
-      <c r="K89" s="51"/>
+      <c r="K89" s="51">
+        <v>44430</v>
+      </c>
       <c r="L89" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K92,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M89" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N89" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N89" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
@@ -53494,7 +53520,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>73</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53503,7 +53529,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.29199999999999998</v>
+        <v>0.39800000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -57962,12 +57988,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58155,15 +58178,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58187,10 +58214,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668EA51B-6524-47B9-87CD-E82F1998D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D51D1E-B1BE-4D5D-8741-5C1CF661ECB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="480" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>99.5</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.39800000000000002</c:v>
+                  <c:v>0.41599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>99.5</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.13382649630127774</c:v>
+                  <c:v>0.1398789509078682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>99.5</v>
+        <v>104</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.39800000000000002</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>99.5</v>
+        <v>104</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>0.13382649630127774</v>
+        <v>0.1398789509078682</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
+      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -50438,18 +50438,20 @@
         <f>'LESSONS (Java)'!J94</f>
         <v>メソッド名は動詞始まりにする</v>
       </c>
-      <c r="K91" s="51"/>
+      <c r="K91" s="51">
+        <v>44445</v>
+      </c>
       <c r="L91" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K94,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M91" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N91" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N91" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.4">
@@ -50488,18 +50490,20 @@
         <f>'LESSONS (Java)'!J95</f>
         <v>🤔 コードは意図を伝えるもの</v>
       </c>
-      <c r="K92" s="51"/>
+      <c r="K92" s="51">
+        <v>44445</v>
+      </c>
       <c r="L92" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K95,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M92" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N92" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N92" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.4">
@@ -50538,18 +50542,20 @@
         <f>'LESSONS (Java)'!J96</f>
         <v>🤔 読みやすく改修しやすいコード</v>
       </c>
-      <c r="K93" s="51"/>
+      <c r="K93" s="51">
+        <v>44445</v>
+      </c>
       <c r="L93" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K96,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M93" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N93" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N93" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.4">
@@ -53520,7 +53526,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>99.5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53529,7 +53535,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.39800000000000002</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -57988,9 +57994,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58178,19 +58187,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58214,9 +58219,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D51D1E-B1BE-4D5D-8741-5C1CF661ECB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D31B1-715B-45C9-87B1-8CCD820A26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="480" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="180" windowWidth="14535" windowHeight="10485" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>124.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.41599999999999998</c:v>
+                  <c:v>0.498</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>124.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.1398789509078682</c:v>
+                  <c:v>0.16745124411566914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>104</v>
+        <v>124.5</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.41599999999999998</v>
+        <v>0.498</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>104</v>
+        <v>124.5</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>0.1398789509078682</v>
+        <v>0.16745124411566914</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -24355,7 +24355,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年09月06日 現在</v>
+        <v>2021年10月13日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomRight" activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -49616,18 +49616,20 @@
         <f>'LESSONS (Java)'!J78</f>
         <v>作成課題 ⭐ ヒットアンドブロー</v>
       </c>
-      <c r="K75" s="51"/>
+      <c r="K75" s="51">
+        <v>44465</v>
+      </c>
       <c r="L75" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K78,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M75" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N75" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N75" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
@@ -50594,18 +50596,20 @@
         <f>'LESSONS (Java)'!J97</f>
         <v>不吉なにおい 🐽 処理のかたまりにコメントを付ける</v>
       </c>
-      <c r="K94" s="51"/>
+      <c r="K94" s="51">
+        <v>44450</v>
+      </c>
       <c r="L94" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K97,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M94" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N94" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N94" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.4">
@@ -50644,18 +50648,20 @@
         <f>'LESSONS (Java)'!J98</f>
         <v>不吉なにおい 🐽 コピペのように処理を複製する</v>
       </c>
-      <c r="K95" s="51"/>
+      <c r="K95" s="51">
+        <v>44450</v>
+      </c>
       <c r="L95" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K98,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M95" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N95" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N95" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.4">
@@ -50744,18 +50750,20 @@
         <f>'LESSONS (Java)'!J100</f>
         <v>オブジェクト指向 OOP とは</v>
       </c>
-      <c r="K97" s="51"/>
+      <c r="K97" s="51">
+        <v>44456</v>
+      </c>
       <c r="L97" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K100,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M97" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N97" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N97" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
@@ -50794,18 +50802,20 @@
         <f>'LESSONS (Java)'!J101</f>
         <v>Java のクラス</v>
       </c>
-      <c r="K98" s="51"/>
+      <c r="K98" s="51">
+        <v>44456</v>
+      </c>
       <c r="L98" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K101,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M98" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N98" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N98" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
@@ -50844,18 +50854,20 @@
         <f>'LESSONS (Java)'!J102</f>
         <v>インスタンスメソッド</v>
       </c>
-      <c r="K99" s="51"/>
+      <c r="K99" s="51">
+        <v>44470</v>
+      </c>
       <c r="L99" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K102,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M99" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N99" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N99" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.4">
@@ -50894,18 +50906,20 @@
         <f>'LESSONS (Java)'!J103</f>
         <v>クラスメソッド</v>
       </c>
-      <c r="K100" s="51"/>
+      <c r="K100" s="51">
+        <v>44470</v>
+      </c>
       <c r="L100" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K103,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M100" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N100" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N100" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.4">
@@ -50944,18 +50958,20 @@
         <f>'LESSONS (Java)'!J104</f>
         <v>Java のオーバーロード</v>
       </c>
-      <c r="K101" s="51"/>
+      <c r="K101" s="51">
+        <v>44479</v>
+      </c>
       <c r="L101" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K104,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M101" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N101" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N101" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.4">
@@ -50994,18 +51010,20 @@
         <f>'LESSONS (Java)'!J105</f>
         <v>Java の Getter と Setter（アクセサ）</v>
       </c>
-      <c r="K102" s="51"/>
+      <c r="K102" s="51">
+        <v>44479</v>
+      </c>
       <c r="L102" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K105,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M102" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N102" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N102" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.4">
@@ -51044,18 +51062,20 @@
         <f>'LESSONS (Java)'!J106</f>
         <v>POJO・Beans・DTO・Entity など</v>
       </c>
-      <c r="K103" s="51"/>
+      <c r="K103" s="51">
+        <v>44479</v>
+      </c>
       <c r="L103" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K106,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M103" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N103" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N103" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
@@ -51094,18 +51114,20 @@
         <f>'LESSONS (Java)'!J107</f>
         <v>IDE による Getter/Setter の自動生成</v>
       </c>
-      <c r="K104" s="51"/>
+      <c r="K104" s="51">
+        <v>44479</v>
+      </c>
       <c r="L104" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K107,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M104" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N104" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N104" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.4">
@@ -51144,18 +51166,20 @@
         <f>'LESSONS (Java)'!J108</f>
         <v>Getter と Setter は最小限に</v>
       </c>
-      <c r="K105" s="51"/>
+      <c r="K105" s="51">
+        <v>44479</v>
+      </c>
       <c r="L105" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K108,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M105" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N105" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N105" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.4">
@@ -53526,7 +53550,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>104</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53535,7 +53559,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.41599999999999998</v>
+        <v>0.498</v>
       </c>
     </row>
   </sheetData>
@@ -57994,12 +58018,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58187,15 +58208,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58219,10 +58244,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D31B1-715B-45C9-87B1-8CCD820A26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A22E8AA-845B-4D83-8608-A816B765C17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="180" windowWidth="14535" windowHeight="10485" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>124.5</c:v>
+                  <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.498</c:v>
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>124.5</c:v>
+                  <c:v>134.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.16745124411566914</c:v>
+                  <c:v>0.1809011432414257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>124.5</v>
+        <v>134.5</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.498</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>124.5</v>
+        <v>134.5</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>0.16745124411566914</v>
+        <v>0.1809011432414257</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -24355,7 +24355,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年10月13日 現在</v>
+        <v>2021年11月07日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M101" sqref="M101"/>
+      <selection pane="bottomRight" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -49772,18 +49772,20 @@
         <f>'LESSONS (Java)'!J81</f>
         <v>作成課題 ⭐ 幹事くん</v>
       </c>
-      <c r="K78" s="51"/>
+      <c r="K78" s="51">
+        <v>44505</v>
+      </c>
       <c r="L78" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K81,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M78" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N78" s="31" t="str">
+        <f>IF(K78&lt;&gt;"","●","")</f>
+        <v>●</v>
+      </c>
+      <c r="N78" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
@@ -50030,18 +50032,20 @@
         <f>'LESSONS (Java)'!J86</f>
         <v>作成課題 ⭐ 数字をカンマ区切り文字列に変換する</v>
       </c>
-      <c r="K83" s="51"/>
+      <c r="K83" s="51">
+        <v>44505</v>
+      </c>
       <c r="L83" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K86,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M83" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N83" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N83" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
@@ -51268,18 +51272,20 @@
         <f>'LESSONS (Java)'!J110</f>
         <v>Java の日付操作</v>
       </c>
-      <c r="K107" s="51"/>
+      <c r="K107" s="51">
+        <v>44498</v>
+      </c>
       <c r="L107" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K110,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M107" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N107" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N107" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.4">
@@ -51318,18 +51324,20 @@
         <f>'LESSONS (Java)'!J111</f>
         <v>ラッパークラス</v>
       </c>
-      <c r="K108" s="51"/>
+      <c r="K108" s="51">
+        <v>44498</v>
+      </c>
       <c r="L108" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K111,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M108" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N108" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N108" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.4">
@@ -51418,18 +51426,20 @@
         <f>'LESSONS (Java)'!J113</f>
         <v>オートボクシングとアンボクシング</v>
       </c>
-      <c r="K110" s="51"/>
+      <c r="K110" s="51">
+        <v>44498</v>
+      </c>
       <c r="L110" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K113,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M110" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N110" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N110" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.4">
@@ -51468,18 +51478,20 @@
         <f>'LESSONS (Java)'!J114</f>
         <v>BigDecimal クラス</v>
       </c>
-      <c r="K111" s="51"/>
+      <c r="K111" s="51">
+        <v>44499</v>
+      </c>
       <c r="L111" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K114,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M111" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N111" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N111" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.4">
@@ -53550,7 +53562,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>124.5</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53559,7 +53571,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.498</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -58018,9 +58030,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58208,19 +58223,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58244,9 +58255,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A22E8AA-845B-4D83-8608-A816B765C17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27065CD1-CE7F-4A7A-9524-BDC0F2B40A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21315" yWindow="1005" windowWidth="18510" windowHeight="13080" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>134.5</c:v>
+                  <c:v>167.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.53800000000000003</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>134.5</c:v>
+                  <c:v>167.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.1809011432414257</c:v>
+                  <c:v>0.22528581035642234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>134.5</v>
+        <v>167.5</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.53800000000000003</v>
+        <v>0.67</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>134.5</v>
+        <v>167.5</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>0.1809011432414257</v>
+        <v>0.22528581035642234</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -24355,7 +24355,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2021年11月07日 現在</v>
+        <v>2022年01月15日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K112" sqref="K112"/>
+      <selection pane="bottomRight" activeCell="N138" sqref="N138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -50188,18 +50188,20 @@
         <f>'LESSONS (Java)'!J89</f>
         <v>作成課題 ⭐ 文字列の圧縮</v>
       </c>
-      <c r="K86" s="51"/>
+      <c r="K86" s="51">
+        <v>44521</v>
+      </c>
       <c r="L86" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K89,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M86" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N86" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N86" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
@@ -50394,18 +50396,20 @@
         <f>'LESSONS (Java)'!J93</f>
         <v>作成課題 ⭐ 文字列を１行毎に分割</v>
       </c>
-      <c r="K90" s="51"/>
+      <c r="K90" s="51">
+        <v>44521</v>
+      </c>
       <c r="L90" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K93,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M90" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N90" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N90" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
@@ -50704,18 +50708,20 @@
         <f>'LESSONS (Java)'!J99</f>
         <v>作成課題 ⭐ ネームバトラー（初級編）</v>
       </c>
-      <c r="K96" s="51"/>
+      <c r="K96" s="51">
+        <v>44530</v>
+      </c>
       <c r="L96" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K99,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M96" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N96" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N96" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.4">
@@ -51222,18 +51228,20 @@
         <f>'LESSONS (Java)'!J109</f>
         <v>作成課題 ⭐ 待ち行列管理クラス</v>
       </c>
-      <c r="K106" s="51"/>
+      <c r="K106" s="51">
+        <v>44568</v>
+      </c>
       <c r="L106" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K109,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M106" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N106" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N106" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
@@ -51580,18 +51588,20 @@
         <f>'LESSONS (Java)'!J116</f>
         <v>Java のアクセス修飾子</v>
       </c>
-      <c r="K113" s="51"/>
+      <c r="K113" s="51">
+        <v>44533</v>
+      </c>
       <c r="L113" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K116,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M113" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N113" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N113" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.4">
@@ -51630,18 +51640,20 @@
         <f>'LESSONS (Java)'!J117</f>
         <v>this キーワード</v>
       </c>
-      <c r="K114" s="51"/>
+      <c r="K114" s="51">
+        <v>44533</v>
+      </c>
       <c r="L114" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K117,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M114" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N114" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N114" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.4">
@@ -51780,18 +51792,20 @@
         <f>'LESSONS (Java)'!J120</f>
         <v>Java のパッケージ</v>
       </c>
-      <c r="K117" s="51"/>
+      <c r="K117" s="51">
+        <v>44534</v>
+      </c>
       <c r="L117" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K120,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M117" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N117" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N117" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.4">
@@ -51880,18 +51894,20 @@
         <f>'LESSONS (Java)'!J122</f>
         <v>Java の継承</v>
       </c>
-      <c r="K119" s="51"/>
+      <c r="K119" s="51">
+        <v>44534</v>
+      </c>
       <c r="L119" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K122,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M119" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N119" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N119" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.4">
@@ -51930,18 +51946,20 @@
         <f>'LESSONS (Java)'!J123</f>
         <v>オーバーライド</v>
       </c>
-      <c r="K120" s="51"/>
+      <c r="K120" s="51">
+        <v>44534</v>
+      </c>
       <c r="L120" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K123,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M120" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N120" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N120" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.4">
@@ -51980,18 +51998,20 @@
         <f>'LESSONS (Java)'!J124</f>
         <v>super キーワード</v>
       </c>
-      <c r="K121" s="51"/>
+      <c r="K121" s="51">
+        <v>44534</v>
+      </c>
       <c r="L121" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K124,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M121" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N121" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N121" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.4">
@@ -52030,18 +52050,20 @@
         <f>'LESSONS (Java)'!J125</f>
         <v>Java の abstract クラス・メソッド</v>
       </c>
-      <c r="K122" s="51"/>
+      <c r="K122" s="51">
+        <v>44541</v>
+      </c>
       <c r="L122" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K125,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M122" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N122" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N122" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.4">
@@ -52080,18 +52102,20 @@
         <f>'LESSONS (Java)'!J126</f>
         <v>Java のインタフェース</v>
       </c>
-      <c r="K123" s="51"/>
+      <c r="K123" s="51">
+        <v>44541</v>
+      </c>
       <c r="L123" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K126,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M123" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N123" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N123" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.4">
@@ -52130,18 +52154,20 @@
         <f>'LESSONS (Java)'!J127</f>
         <v>Java のポリモーフィズム（多態性）</v>
       </c>
-      <c r="K124" s="51"/>
+      <c r="K124" s="51">
+        <v>44541</v>
+      </c>
       <c r="L124" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K127,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M124" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N124" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N124" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.4">
@@ -52180,18 +52206,20 @@
         <f>'LESSONS (Java)'!J128</f>
         <v>関連・集約・構成</v>
       </c>
-      <c r="K125" s="51"/>
+      <c r="K125" s="51">
+        <v>44561</v>
+      </c>
       <c r="L125" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K128,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M125" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N125" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N125" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.4">
@@ -52230,18 +52258,20 @@
         <f>'LESSONS (Java)'!J129</f>
         <v>Is-A と Has-A と Part-Of</v>
       </c>
-      <c r="K126" s="51"/>
+      <c r="K126" s="51">
+        <v>44561</v>
+      </c>
       <c r="L126" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K129,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M126" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N126" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N126" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.4">
@@ -52280,18 +52310,20 @@
         <f>'LESSONS (Java)'!J130</f>
         <v>Java の委譲</v>
       </c>
-      <c r="K127" s="51"/>
+      <c r="K127" s="51">
+        <v>44561</v>
+      </c>
       <c r="L127" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K130,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M127" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N127" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N127" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.4">
@@ -52430,18 +52462,20 @@
         <f>'LESSONS (Java)'!J133</f>
         <v>Static メソッド</v>
       </c>
-      <c r="K130" s="51"/>
+      <c r="K130" s="51">
+        <v>44566</v>
+      </c>
       <c r="L130" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K133,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M130" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N130" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N130" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.4">
@@ -52480,18 +52514,20 @@
         <f>'LESSONS (Java)'!J134</f>
         <v>Static 変数</v>
       </c>
-      <c r="K131" s="51"/>
+      <c r="K131" s="51">
+        <v>44566</v>
+      </c>
       <c r="L131" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K134,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M131" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N131" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N131" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.4">
@@ -53562,7 +53598,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>134.5</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53571,7 +53607,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.53800000000000003</v>
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -58030,15 +58066,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008D4B52C4E09BE346A1B2AD8C50484576" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="239607ba7cc035e6147fab96aefe0e2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9ae3101-3629-40bd-8235-75573e76ade7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fd0e83de1463395e554646227f4817c" ns2:_="">
     <xsd:import namespace="f9ae3101-3629-40bd-8235-75573e76ade7"/>
@@ -58222,6 +58249,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -58229,14 +58265,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E912D01-242A-4733-A655-2038F99C3758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58254,6 +58282,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>

--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27065CD1-CE7F-4A7A-9524-BDC0F2B40A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9BB8BB-92C2-49E2-B8EA-7EEDA0623B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21315" yWindow="1005" windowWidth="18510" windowHeight="13080" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>167.5</c:v>
+                  <c:v>169.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0.67800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>167.5</c:v>
+                  <c:v>169.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.22528581035642234</c:v>
+                  <c:v>0.22797579018157363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>167.5</v>
+        <v>169.5</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.67</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>167.5</v>
+        <v>169.5</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>0.22528581035642234</v>
+        <v>0.22797579018157363</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -24355,7 +24355,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2022年01月15日 現在</v>
+        <v>2022年01月31日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="N138" sqref="N138"/>
+      <selection pane="bottomRight" activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -51384,18 +51384,20 @@
         <f>'LESSONS (Java)'!J112</f>
         <v>作成課題 ⭐ ランキング管理クラス</v>
       </c>
-      <c r="K109" s="51"/>
+      <c r="K109" s="51">
+        <v>44582</v>
+      </c>
       <c r="L109" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K112,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M109" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N109" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N109" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.4">
@@ -52876,7 +52878,7 @@
         <v/>
       </c>
       <c r="N138" s="31" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(M138="●",L138,"")</f>
         <v/>
       </c>
     </row>
@@ -53598,7 +53600,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>167.5</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53607,7 +53609,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.67</v>
+        <v>0.67800000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -58250,18 +58252,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58283,18 +58285,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9BB8BB-92C2-49E2-B8EA-7EEDA0623B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175C683-4E23-48E7-ADDD-7B5E5C5DBBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26520" yWindow="4500" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K110" sqref="K110"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6:K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -58068,6 +58068,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008D4B52C4E09BE346A1B2AD8C50484576" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="239607ba7cc035e6147fab96aefe0e2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9ae3101-3629-40bd-8235-75573e76ade7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fd0e83de1463395e554646227f4817c" ns2:_="">
     <xsd:import namespace="f9ae3101-3629-40bd-8235-75573e76ade7"/>
@@ -58251,12 +58257,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -58267,6 +58267,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E912D01-242A-4733-A655-2038F99C3758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58284,15 +58293,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs>

--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175C683-4E23-48E7-ADDD-7B5E5C5DBBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EAC1C-5695-4B6E-80D2-F9CB9FE8072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="4500" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="675" windowWidth="11895" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>169.5</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.67800000000000005</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>169.5</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.22797579018157363</c:v>
+                  <c:v>0.24882313382649629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>169.5</v>
+        <v>185</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.67800000000000005</v>
+        <v>0.74</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>169.5</v>
+        <v>185</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>0.22797579018157363</v>
+        <v>0.24882313382649629</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -24355,7 +24355,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2022年01月31日 現在</v>
+        <v>2022年02月27日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6:K150"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6:K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -51540,18 +51540,20 @@
         <f>'LESSONS (Java)'!J115</f>
         <v>作成課題 ⭐ トランプゲーム</v>
       </c>
-      <c r="K112" s="51"/>
+      <c r="K112" s="51">
+        <v>44596</v>
+      </c>
       <c r="L112" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K115,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M112" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N112" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N112" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.4">
@@ -51694,18 +51696,20 @@
         <f>'LESSONS (Java)'!J118</f>
         <v>作成課題 ⭐ 無人島生活ゲーム</v>
       </c>
-      <c r="K115" s="51"/>
+      <c r="K115" s="51">
+        <v>44610</v>
+      </c>
       <c r="L115" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K118,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M115" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N115" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N115" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.4">
@@ -52568,18 +52572,20 @@
         <f>'LESSONS (Java)'!J135</f>
         <v>Static 初期化ブロック</v>
       </c>
-      <c r="K132" s="51"/>
+      <c r="K132" s="51">
+        <v>44598</v>
+      </c>
       <c r="L132" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K135,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M132" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N132" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N132" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.4">
@@ -52618,18 +52624,20 @@
         <f>'LESSONS (Java)'!J136</f>
         <v>ネストクラス・内部クラス</v>
       </c>
-      <c r="K133" s="51"/>
+      <c r="K133" s="51">
+        <v>44598</v>
+      </c>
       <c r="L133" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K136,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M133" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N133" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N133" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.4">
@@ -52668,18 +52676,20 @@
         <f>'LESSONS (Java)'!J137</f>
         <v>Java の 匿名クラス</v>
       </c>
-      <c r="K134" s="51"/>
+      <c r="K134" s="51">
+        <v>44599</v>
+      </c>
       <c r="L134" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K137,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M134" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N134" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N134" s="31">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.4">
@@ -52718,18 +52728,20 @@
         <f>'LESSONS (Java)'!J138</f>
         <v>列挙子 Enum の使い方（基本）</v>
       </c>
-      <c r="K135" s="51"/>
+      <c r="K135" s="51">
+        <v>44605</v>
+      </c>
       <c r="L135" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K138,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M135" s="30" t="str">
         <f t="shared" ref="M135:M152" si="4">IF(K135&lt;&gt;"","●","")</f>
-        <v/>
-      </c>
-      <c r="N135" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N135" s="31">
         <f t="shared" ref="N135:N152" si="5">IF(M135="●",L135,"")</f>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.4">
@@ -52768,18 +52780,20 @@
         <f>'LESSONS (Java)'!J139</f>
         <v>列挙子 Enum の使い方（発展）</v>
       </c>
-      <c r="K136" s="51"/>
+      <c r="K136" s="51">
+        <v>44605</v>
+      </c>
       <c r="L136" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K139,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M136" s="30" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N136" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N136" s="31">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.4">
@@ -53600,7 +53614,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>169.5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53609,7 +53623,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.67800000000000005</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -58074,6 +58088,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008D4B52C4E09BE346A1B2AD8C50484576" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="239607ba7cc035e6147fab96aefe0e2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9ae3101-3629-40bd-8235-75573e76ade7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fd0e83de1463395e554646227f4817c" ns2:_="">
     <xsd:import namespace="f9ae3101-3629-40bd-8235-75573e76ade7"/>
@@ -58257,15 +58280,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>
@@ -58276,6 +58290,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E912D01-242A-4733-A655-2038F99C3758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58291,12 +58313,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
+++ b/個人ロードマップ(学習進捗)_鍛治宏旭.2021.06.30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaji hiroaki\Documents\研修課題\javaBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EAC1C-5695-4B6E-80D2-F9CB9FE8072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2447E83-3E19-4887-A6E4-B26BAC2EA9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="675" windowWidth="11895" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6810" yWindow="1545" windowWidth="15375" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" r:id="rId1"/>
@@ -4831,7 +4831,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>185</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4956,7 +4956,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.74</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5365,7 +5365,7 @@
                 <c:formatCode>0.0\ "h"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>185</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5470,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.24882313382649629</c:v>
+                  <c:v>0.25958305312710156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23966,11 +23966,11 @@
       </c>
       <c r="L5" s="36">
         <f>'Java カリキュラム'!N155</f>
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M5" s="53">
         <f>L5/K5</f>
-        <v>0.74</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="35" t="s">
@@ -23982,11 +23982,11 @@
       </c>
       <c r="Q5" s="36">
         <f>SUM(L5:L8)</f>
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="R5" s="53">
         <f>Q5/P5</f>
-        <v>0.24882313382649629</v>
+        <v>0.25958305312710156</v>
       </c>
       <c r="S5" s="42"/>
     </row>
@@ -24355,7 +24355,7 @@
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
         <f ca="1">TEXT(NOW(),"yyyy年MM月dd日 現在")</f>
-        <v>2022年02月27日 現在</v>
+        <v>2022年04月04日 現在</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -45505,10 +45505,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6:K136"/>
+      <selection pane="bottomRight" activeCell="K141" sqref="K6:K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -52882,18 +52882,20 @@
         <f>'LESSONS (Java)'!J141</f>
         <v>Java における例外の種類・例外をキャッチする方法</v>
       </c>
-      <c r="K138" s="51"/>
+      <c r="K138" s="51">
+        <v>44649</v>
+      </c>
       <c r="L138" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K141,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M138" s="30" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N138" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N138" s="31">
         <f>IF(M138="●",L138,"")</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.4">
@@ -52932,18 +52934,20 @@
         <f>'LESSONS (Java)'!J142</f>
         <v>チェック例外と非チェック例外</v>
       </c>
-      <c r="K139" s="51"/>
+      <c r="K139" s="51">
+        <v>44649</v>
+      </c>
       <c r="L139" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K142,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M139" s="30" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N139" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N139" s="31">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.4">
@@ -52982,18 +52986,20 @@
         <f>'LESSONS (Java)'!J143</f>
         <v>例外の throw と thorows</v>
       </c>
-      <c r="K140" s="51"/>
+      <c r="K140" s="51">
+        <v>44649</v>
+      </c>
       <c r="L140" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K143,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M140" s="30" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N140" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N140" s="31">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.4">
@@ -53032,18 +53038,20 @@
         <f>'LESSONS (Java)'!J144</f>
         <v>自作例外の作成</v>
       </c>
-      <c r="K141" s="51"/>
+      <c r="K141" s="51">
+        <v>44649</v>
+      </c>
       <c r="L141" s="31">
         <f>VLOOKUP('LESSONS (Java)'!K144,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M141" s="30" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N141" s="31" t="str">
+        <v>●</v>
+      </c>
+      <c r="N141" s="31">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.4">
@@ -53614,7 +53622,7 @@
       </c>
       <c r="N155" s="31">
         <f>SUM(N6:N152)</f>
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
@@ -53623,7 +53631,7 @@
       </c>
       <c r="N156" s="32">
         <f>N155/N154</f>
-        <v>0.74</v>
+        <v>0.77200000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -58088,15 +58096,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008D4B52C4E09BE346A1B2AD8C50484576" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="239607ba7cc035e6147fab96aefe0e2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9ae3101-3629-40bd-8235-75573e76ade7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fd0e83de1463395e554646227f4817c" ns2:_="">
     <xsd:import namespace="f9ae3101-3629-40bd-8235-75573e76ade7"/>
@@ -58280,6 +58279,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs>
@@ -58290,14 +58298,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E912D01-242A-4733-A655-2038F99C3758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58313,4 +58313,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>